--- a/downloaded_files/EPES200_Lecture-35399.xlsx
+++ b/downloaded_files/EPES200_Lecture-35399.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Mariam Abdelnaby Elsayed Abdelgawad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور هانى محمد جمال محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Hany</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -191,7 +182,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -491,7 +482,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T6"/>
+  <x:dimension ref="A1:T5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -696,38 +687,6 @@
       <x:c r="S5" s="2" t="s"/>
       <x:c r="T5" s="2" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:20">
-      <x:c r="A6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="3">
-        <x:v>45907.7157357292</x:v>
-      </x:c>
-      <x:c r="F6" s="2" t="s"/>
-      <x:c r="G6" s="2" t="s"/>
-      <x:c r="H6" s="2" t="s"/>
-      <x:c r="I6" s="2" t="s"/>
-      <x:c r="J6" s="2" t="s"/>
-      <x:c r="K6" s="2" t="s"/>
-      <x:c r="L6" s="2" t="s"/>
-      <x:c r="M6" s="2" t="s"/>
-      <x:c r="N6" s="2" t="s"/>
-      <x:c r="O6" s="2" t="s"/>
-      <x:c r="P6" s="2" t="s"/>
-      <x:c r="Q6" s="2" t="s"/>
-      <x:c r="R6" s="2" t="s"/>
-      <x:c r="S6" s="2" t="s"/>
-      <x:c r="T6" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
